--- a/Modello/nuovi modelli/Input-Output-2.xlsx
+++ b/Modello/nuovi modelli/Input-Output-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test-1" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="46">
   <si>
     <t>ATM/CNS provision costs</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>EANS</t>
-  </si>
-  <si>
-    <t>ENAIRE</t>
   </si>
   <si>
     <t>ENAV</t>
@@ -182,10 +179,7 @@
     <t>k</t>
   </si>
   <si>
-    <t>0.00000001</t>
-  </si>
-  <si>
-    <t>0.0000001</t>
+    <t>ENAIRE</t>
   </si>
 </sst>
 </file>
@@ -308,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -340,9 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -694,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,76 +735,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -821,120 +812,120 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>18410</v>
+        <v>20742</v>
       </c>
       <c r="C2" s="4">
-        <v>92051</v>
+        <v>110819</v>
       </c>
       <c r="D2" s="4">
-        <v>4480</v>
+        <v>8213</v>
       </c>
       <c r="E2" s="4">
-        <v>150346</v>
+        <v>183663</v>
       </c>
       <c r="F2" s="4">
-        <v>94434</v>
+        <v>190914</v>
       </c>
       <c r="G2" s="4">
-        <v>98393</v>
+        <v>152517</v>
       </c>
       <c r="H2" s="4">
-        <v>69781</v>
+        <v>78480</v>
       </c>
       <c r="I2" s="4">
-        <v>76524</v>
+        <v>84714</v>
       </c>
       <c r="J2" s="4">
-        <v>34084</v>
+        <v>38773</v>
       </c>
       <c r="K2" s="4">
-        <v>829697</v>
+        <v>1044843</v>
       </c>
       <c r="L2" s="4">
-        <v>287980</v>
+        <v>381347</v>
       </c>
       <c r="M2" s="4">
-        <v>958920</v>
+        <v>1211018</v>
       </c>
       <c r="N2" s="4">
-        <v>14197</v>
+        <v>15836</v>
       </c>
       <c r="O2" s="4">
-        <v>604266</v>
+        <v>775632</v>
       </c>
       <c r="P2" s="4">
-        <v>556266</v>
+        <v>703762</v>
       </c>
       <c r="Q2" s="4">
-        <v>38230</v>
+        <v>66515</v>
       </c>
       <c r="R2" s="4">
-        <v>127715</v>
+        <v>150856</v>
       </c>
       <c r="S2" s="4">
-        <v>74539</v>
+        <v>88301</v>
       </c>
       <c r="T2" s="4">
-        <v>88518</v>
+        <v>108791</v>
       </c>
       <c r="U2" s="4">
-        <v>165810</v>
+        <v>186244</v>
       </c>
       <c r="V2" s="4">
-        <v>17271</v>
+        <v>21977</v>
       </c>
       <c r="W2" s="4">
-        <v>53196</v>
+        <v>59146</v>
       </c>
       <c r="X2" s="4">
-        <v>118407</v>
+        <v>171876</v>
       </c>
       <c r="Y2" s="4">
-        <v>11556</v>
+        <v>14224</v>
       </c>
       <c r="Z2" s="4">
-        <v>10498</v>
+        <v>11613</v>
       </c>
       <c r="AA2" s="4">
-        <v>5817</v>
+        <v>9615</v>
       </c>
       <c r="AB2" s="4">
         <v>145335</v>
       </c>
       <c r="AC2" s="4">
-        <v>595612</v>
+        <v>777890</v>
       </c>
       <c r="AD2" s="4">
-        <v>89408</v>
+        <v>112264</v>
       </c>
       <c r="AE2" s="4">
-        <v>80124</v>
+        <v>108432</v>
       </c>
       <c r="AF2" s="4">
-        <v>20104</v>
+        <v>24869</v>
       </c>
       <c r="AG2" s="4">
-        <v>142617</v>
+        <v>167361</v>
       </c>
       <c r="AH2" s="4">
-        <v>136127</v>
+        <v>163538</v>
       </c>
       <c r="AI2" s="4">
-        <v>188780</v>
+        <v>292219</v>
       </c>
       <c r="AJ2" s="4">
-        <v>26775</v>
+        <v>30354</v>
       </c>
       <c r="AK2" s="4">
-        <v>60420</v>
+        <v>76898</v>
       </c>
       <c r="AL2" s="4">
-        <v>123204</v>
+        <v>155892</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>49</v>
@@ -1050,7 +1041,7 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
         <v>198399</v>
@@ -1166,7 +1157,7 @@
     </row>
     <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
         <v>46627</v>
@@ -1290,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AL6" sqref="B6:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1298,8 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
@@ -2590,7 +2582,7 @@
     <col min="16166" max="16166" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2634,76 +2626,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2711,120 +2703,120 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>18410</v>
+        <v>20742</v>
       </c>
       <c r="C2" s="4">
-        <v>92051</v>
+        <v>110819</v>
       </c>
       <c r="D2" s="4">
-        <v>4480</v>
+        <v>8213</v>
       </c>
       <c r="E2" s="4">
-        <v>150346</v>
+        <v>183663</v>
       </c>
       <c r="F2" s="4">
-        <v>94434</v>
+        <v>190914</v>
       </c>
       <c r="G2" s="4">
-        <v>98393</v>
+        <v>152517</v>
       </c>
       <c r="H2" s="4">
-        <v>69781</v>
+        <v>78480</v>
       </c>
       <c r="I2" s="4">
-        <v>76524</v>
+        <v>84714</v>
       </c>
       <c r="J2" s="4">
-        <v>34084</v>
+        <v>38773</v>
       </c>
       <c r="K2" s="4">
-        <v>829697</v>
+        <v>1044843</v>
       </c>
       <c r="L2" s="4">
-        <v>287980</v>
+        <v>381347</v>
       </c>
       <c r="M2" s="4">
-        <v>958920</v>
+        <v>1211018</v>
       </c>
       <c r="N2" s="4">
-        <v>14197</v>
+        <v>15836</v>
       </c>
       <c r="O2" s="4">
-        <v>604266</v>
+        <v>775632</v>
       </c>
       <c r="P2" s="4">
-        <v>556266</v>
+        <v>703762</v>
       </c>
       <c r="Q2" s="4">
-        <v>38230</v>
+        <v>66515</v>
       </c>
       <c r="R2" s="4">
-        <v>127715</v>
+        <v>150856</v>
       </c>
       <c r="S2" s="4">
-        <v>74539</v>
+        <v>88301</v>
       </c>
       <c r="T2" s="4">
-        <v>88518</v>
+        <v>108791</v>
       </c>
       <c r="U2" s="4">
-        <v>165810</v>
+        <v>186244</v>
       </c>
       <c r="V2" s="4">
-        <v>17271</v>
+        <v>21977</v>
       </c>
       <c r="W2" s="4">
-        <v>53196</v>
+        <v>59146</v>
       </c>
       <c r="X2" s="4">
-        <v>118407</v>
+        <v>171876</v>
       </c>
       <c r="Y2" s="4">
-        <v>11556</v>
+        <v>14224</v>
       </c>
       <c r="Z2" s="4">
-        <v>10498</v>
+        <v>11613</v>
       </c>
       <c r="AA2" s="4">
-        <v>5817</v>
+        <v>9615</v>
       </c>
       <c r="AB2" s="4">
         <v>145335</v>
       </c>
       <c r="AC2" s="4">
-        <v>595612</v>
+        <v>777890</v>
       </c>
       <c r="AD2" s="4">
-        <v>89408</v>
+        <v>112264</v>
       </c>
       <c r="AE2" s="4">
-        <v>80124</v>
+        <v>108432</v>
       </c>
       <c r="AF2" s="4">
-        <v>20104</v>
+        <v>24869</v>
       </c>
       <c r="AG2" s="4">
-        <v>142617</v>
+        <v>167361</v>
       </c>
       <c r="AH2" s="4">
-        <v>136127</v>
+        <v>163538</v>
       </c>
       <c r="AI2" s="4">
-        <v>188780</v>
+        <v>292219</v>
       </c>
       <c r="AJ2" s="4">
-        <v>26775</v>
+        <v>30354</v>
       </c>
       <c r="AK2" s="4">
-        <v>60420</v>
+        <v>76898</v>
       </c>
       <c r="AL2" s="4">
-        <v>123204</v>
+        <v>155892</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>49</v>
@@ -2940,7 +2932,7 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
         <v>198399</v>
@@ -3056,7 +3048,7 @@
     </row>
     <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
         <v>46627</v>
@@ -3172,16 +3164,16 @@
     </row>
     <row r="6" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C6" s="6">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>46</v>
+      <c r="D6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E6" s="6">
         <v>20</v>
@@ -3192,8 +3184,8 @@
       <c r="G6" s="6">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>46</v>
+      <c r="H6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="I6" s="6">
         <v>163</v>
@@ -3228,14 +3220,14 @@
       <c r="S6" s="6">
         <v>1</v>
       </c>
-      <c r="T6" s="6" t="s">
-        <v>46</v>
+      <c r="T6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="U6" s="6">
         <v>24</v>
       </c>
-      <c r="V6" s="6" t="s">
-        <v>46</v>
+      <c r="V6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="W6" s="6">
         <v>61</v>
@@ -3243,14 +3235,14 @@
       <c r="X6" s="6">
         <v>70</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>46</v>
+      <c r="Y6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="Z6" s="6">
         <v>1</v>
       </c>
-      <c r="AA6" s="6" t="s">
-        <v>46</v>
+      <c r="AA6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AB6" s="6">
         <v>281</v>
@@ -3261,17 +3253,17 @@
       <c r="AD6" s="6">
         <v>240</v>
       </c>
-      <c r="AE6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>46</v>
+      <c r="AE6" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AG6" s="6">
         <v>547</v>
       </c>
-      <c r="AH6" s="6" t="s">
-        <v>46</v>
+      <c r="AH6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AI6" s="6">
         <v>120</v>
@@ -3282,8 +3274,8 @@
       <c r="AK6" s="6">
         <v>2</v>
       </c>
-      <c r="AL6" s="6" t="s">
-        <v>47</v>
+      <c r="AL6" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -3299,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AL6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4631,76 +4623,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4708,120 +4700,120 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>18410</v>
+        <v>20742</v>
       </c>
       <c r="C2" s="4">
-        <v>92051</v>
+        <v>110819</v>
       </c>
       <c r="D2" s="4">
-        <v>4480</v>
+        <v>8213</v>
       </c>
       <c r="E2" s="4">
-        <v>150346</v>
+        <v>183663</v>
       </c>
       <c r="F2" s="4">
-        <v>94434</v>
+        <v>190914</v>
       </c>
       <c r="G2" s="4">
-        <v>98393</v>
+        <v>152517</v>
       </c>
       <c r="H2" s="4">
-        <v>69781</v>
+        <v>78480</v>
       </c>
       <c r="I2" s="4">
-        <v>76524</v>
+        <v>84714</v>
       </c>
       <c r="J2" s="4">
-        <v>34084</v>
+        <v>38773</v>
       </c>
       <c r="K2" s="4">
-        <v>829697</v>
+        <v>1044843</v>
       </c>
       <c r="L2" s="4">
-        <v>287980</v>
+        <v>381347</v>
       </c>
       <c r="M2" s="4">
-        <v>958920</v>
+        <v>1211018</v>
       </c>
       <c r="N2" s="4">
-        <v>14197</v>
+        <v>15836</v>
       </c>
       <c r="O2" s="4">
-        <v>604266</v>
+        <v>775632</v>
       </c>
       <c r="P2" s="4">
-        <v>556266</v>
+        <v>703762</v>
       </c>
       <c r="Q2" s="4">
-        <v>38230</v>
+        <v>66515</v>
       </c>
       <c r="R2" s="4">
-        <v>127715</v>
+        <v>150856</v>
       </c>
       <c r="S2" s="4">
-        <v>74539</v>
+        <v>88301</v>
       </c>
       <c r="T2" s="4">
-        <v>88518</v>
+        <v>108791</v>
       </c>
       <c r="U2" s="4">
-        <v>165810</v>
+        <v>186244</v>
       </c>
       <c r="V2" s="4">
-        <v>17271</v>
+        <v>21977</v>
       </c>
       <c r="W2" s="4">
-        <v>53196</v>
+        <v>59146</v>
       </c>
       <c r="X2" s="4">
-        <v>118407</v>
+        <v>171876</v>
       </c>
       <c r="Y2" s="4">
-        <v>11556</v>
+        <v>14224</v>
       </c>
       <c r="Z2" s="4">
-        <v>10498</v>
+        <v>11613</v>
       </c>
       <c r="AA2" s="4">
-        <v>5817</v>
+        <v>9615</v>
       </c>
       <c r="AB2" s="4">
         <v>145335</v>
       </c>
       <c r="AC2" s="4">
-        <v>595612</v>
+        <v>777890</v>
       </c>
       <c r="AD2" s="4">
-        <v>89408</v>
+        <v>112264</v>
       </c>
       <c r="AE2" s="4">
-        <v>80124</v>
+        <v>108432</v>
       </c>
       <c r="AF2" s="4">
-        <v>20104</v>
+        <v>24869</v>
       </c>
       <c r="AG2" s="4">
-        <v>142617</v>
+        <v>167361</v>
       </c>
       <c r="AH2" s="4">
-        <v>136127</v>
+        <v>163538</v>
       </c>
       <c r="AI2" s="4">
-        <v>188780</v>
+        <v>292219</v>
       </c>
       <c r="AJ2" s="4">
-        <v>26775</v>
+        <v>30354</v>
       </c>
       <c r="AK2" s="4">
-        <v>60420</v>
+        <v>76898</v>
       </c>
       <c r="AL2" s="4">
-        <v>123204</v>
+        <v>155892</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>49</v>
@@ -4937,16 +4929,16 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="C4" s="6">
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E4" s="6">
         <v>20</v>
@@ -4958,7 +4950,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="I4" s="6">
         <v>163</v>
@@ -4994,13 +4986,13 @@
         <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="U4" s="6">
         <v>24</v>
       </c>
       <c r="V4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="W4" s="6">
         <v>61</v>
@@ -5009,13 +5001,13 @@
         <v>70</v>
       </c>
       <c r="Y4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="Z4" s="6">
         <v>1</v>
       </c>
       <c r="AA4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AB4" s="6">
         <v>281</v>
@@ -5027,16 +5019,16 @@
         <v>240</v>
       </c>
       <c r="AE4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AF4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AG4" s="6">
         <v>547</v>
       </c>
       <c r="AH4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AI4" s="6">
         <v>120</v>
@@ -5048,12 +5040,12 @@
         <v>2</v>
       </c>
       <c r="AL4" s="6">
-        <v>0</v>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6">
         <v>198399</v>
@@ -5169,7 +5161,7 @@
     </row>
     <row r="6" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6">
         <v>46627</v>
@@ -5295,8 +5287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6627,76 +6619,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -6704,120 +6696,120 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>18410</v>
+        <v>20742</v>
       </c>
       <c r="C2" s="4">
-        <v>92051</v>
+        <v>110819</v>
       </c>
       <c r="D2" s="4">
-        <v>4480</v>
+        <v>8213</v>
       </c>
       <c r="E2" s="4">
-        <v>150346</v>
+        <v>183663</v>
       </c>
       <c r="F2" s="4">
-        <v>94434</v>
+        <v>190914</v>
       </c>
       <c r="G2" s="4">
-        <v>98393</v>
+        <v>152517</v>
       </c>
       <c r="H2" s="4">
-        <v>69781</v>
+        <v>78480</v>
       </c>
       <c r="I2" s="4">
-        <v>76524</v>
+        <v>84714</v>
       </c>
       <c r="J2" s="4">
-        <v>34084</v>
+        <v>38773</v>
       </c>
       <c r="K2" s="4">
-        <v>829697</v>
+        <v>1044843</v>
       </c>
       <c r="L2" s="4">
-        <v>287980</v>
+        <v>381347</v>
       </c>
       <c r="M2" s="4">
-        <v>958920</v>
+        <v>1211018</v>
       </c>
       <c r="N2" s="4">
-        <v>14197</v>
+        <v>15836</v>
       </c>
       <c r="O2" s="4">
-        <v>604266</v>
+        <v>775632</v>
       </c>
       <c r="P2" s="4">
-        <v>556266</v>
+        <v>703762</v>
       </c>
       <c r="Q2" s="4">
-        <v>38230</v>
+        <v>66515</v>
       </c>
       <c r="R2" s="4">
-        <v>127715</v>
+        <v>150856</v>
       </c>
       <c r="S2" s="4">
-        <v>74539</v>
+        <v>88301</v>
       </c>
       <c r="T2" s="4">
-        <v>88518</v>
+        <v>108791</v>
       </c>
       <c r="U2" s="4">
-        <v>165810</v>
+        <v>186244</v>
       </c>
       <c r="V2" s="4">
-        <v>17271</v>
+        <v>21977</v>
       </c>
       <c r="W2" s="4">
-        <v>53196</v>
+        <v>59146</v>
       </c>
       <c r="X2" s="4">
-        <v>118407</v>
+        <v>171876</v>
       </c>
       <c r="Y2" s="4">
-        <v>11556</v>
+        <v>14224</v>
       </c>
       <c r="Z2" s="4">
-        <v>10498</v>
+        <v>11613</v>
       </c>
       <c r="AA2" s="4">
-        <v>5817</v>
+        <v>9615</v>
       </c>
       <c r="AB2" s="4">
         <v>145335</v>
       </c>
       <c r="AC2" s="4">
-        <v>595612</v>
+        <v>777890</v>
       </c>
       <c r="AD2" s="4">
-        <v>89408</v>
+        <v>112264</v>
       </c>
       <c r="AE2" s="4">
-        <v>80124</v>
+        <v>108432</v>
       </c>
       <c r="AF2" s="4">
-        <v>20104</v>
+        <v>24869</v>
       </c>
       <c r="AG2" s="4">
-        <v>142617</v>
+        <v>167361</v>
       </c>
       <c r="AH2" s="4">
-        <v>136127</v>
+        <v>163538</v>
       </c>
       <c r="AI2" s="4">
-        <v>188780</v>
+        <v>292219</v>
       </c>
       <c r="AJ2" s="4">
-        <v>26775</v>
+        <v>30354</v>
       </c>
       <c r="AK2" s="4">
-        <v>60420</v>
+        <v>76898</v>
       </c>
       <c r="AL2" s="4">
-        <v>123204</v>
+        <v>155892</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>49</v>
@@ -6933,7 +6925,7 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
         <v>198399</v>
@@ -7049,7 +7041,7 @@
     </row>
     <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
         <v>46627</v>
@@ -7165,11 +7157,11 @@
     </row>
     <row r="6" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7">
         <f>PRODUCT(B10,B8)</f>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" ref="C6:AL6" si="0">PRODUCT(C10,C8)</f>
@@ -7177,7 +7169,7 @@
       </c>
       <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
@@ -7193,7 +7185,7 @@
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="0"/>
@@ -7241,7 +7233,7 @@
       </c>
       <c r="T6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="0"/>
@@ -7249,7 +7241,7 @@
       </c>
       <c r="V6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="W6" s="7">
         <f t="shared" si="0"/>
@@ -7261,7 +7253,7 @@
       </c>
       <c r="Y6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="Z6" s="7">
         <f t="shared" si="0"/>
@@ -7269,7 +7261,7 @@
       </c>
       <c r="AA6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AB6" s="7">
         <f t="shared" si="0"/>
@@ -7285,11 +7277,11 @@
       </c>
       <c r="AE6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AF6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AG6" s="7">
         <f t="shared" si="0"/>
@@ -7297,7 +7289,7 @@
       </c>
       <c r="AH6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="AI6" s="7">
         <f t="shared" si="0"/>
@@ -7313,244 +7305,244 @@
       </c>
       <c r="AL6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="14">
         <v>-40000</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>-40000</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>-40000</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>-40000</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>-40000</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>-40000</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>-40000</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <v>-40000</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>-40000</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>-40000</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>-40000</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>-40000</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>-40000</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>-40000</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>-40000</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <v>-40000</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>-40000</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="14">
         <v>-40000</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="14">
         <v>-40000</v>
       </c>
-      <c r="U8" s="15">
+      <c r="U8" s="14">
         <v>-40000</v>
       </c>
-      <c r="V8" s="15">
+      <c r="V8" s="14">
         <v>-40000</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="14">
         <v>-40000</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="14">
         <v>-40000</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="14">
         <v>-40000</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AD8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AE8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AF8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AG8" s="15">
+      <c r="AG8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AH8" s="15">
+      <c r="AH8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AI8" s="15">
+      <c r="AI8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AJ8" s="15">
+      <c r="AJ8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AK8" s="15">
+      <c r="AK8" s="14">
         <v>-40000</v>
       </c>
-      <c r="AL8" s="15">
+      <c r="AL8" s="14">
         <v>-40000</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>44</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="A10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C10" s="6">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E10" s="6">
         <v>20</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>19</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="6">
         <v>10</v>
       </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="H10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I10" s="6">
         <v>163</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="6">
         <v>581</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="6">
         <v>716</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="6">
         <v>102</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="6">
         <v>1883</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="6">
         <v>6</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="6">
         <v>497</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="6">
         <v>30</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="6">
         <v>28</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="6">
         <v>275</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="6">
         <v>1</v>
       </c>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10">
+      <c r="T10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="U10" s="6">
         <v>24</v>
       </c>
-      <c r="V10" s="10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="10">
+      <c r="V10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="W10" s="6">
         <v>61</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="6">
         <v>70</v>
       </c>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10">
+      <c r="Y10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Z10" s="6">
         <v>1</v>
       </c>
-      <c r="AA10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="10">
+      <c r="AA10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AB10" s="6">
         <v>281</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="6">
         <v>129</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="6">
         <v>240</v>
       </c>
-      <c r="AE10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="10">
+      <c r="AE10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AG10" s="6">
         <v>547</v>
       </c>
-      <c r="AH10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="10">
+      <c r="AH10" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AI10" s="6">
         <v>120</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="AJ10" s="6">
         <v>1</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AK10" s="6">
         <v>2</v>
       </c>
-      <c r="AL10" s="10">
-        <v>0</v>
+      <c r="AL10" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
   </sheetData>
@@ -7563,7 +7555,7 @@
   <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="B9" sqref="B9:AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7578,7 +7570,7 @@
     <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" customWidth="1"/>
     <col min="16" max="17" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
@@ -7599,7 +7591,7 @@
     <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7643,76 +7635,76 @@
         <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -7720,120 +7712,120 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>18410</v>
+        <v>20742</v>
       </c>
       <c r="C2" s="4">
-        <v>92051</v>
+        <v>110819</v>
       </c>
       <c r="D2" s="4">
-        <v>4480</v>
+        <v>8213</v>
       </c>
       <c r="E2" s="4">
-        <v>150346</v>
+        <v>183663</v>
       </c>
       <c r="F2" s="4">
-        <v>94434</v>
+        <v>190914</v>
       </c>
       <c r="G2" s="4">
-        <v>98393</v>
+        <v>152517</v>
       </c>
       <c r="H2" s="4">
-        <v>69781</v>
+        <v>78480</v>
       </c>
       <c r="I2" s="4">
-        <v>76524</v>
+        <v>84714</v>
       </c>
       <c r="J2" s="4">
-        <v>34084</v>
+        <v>38773</v>
       </c>
       <c r="K2" s="4">
-        <v>829697</v>
+        <v>1044843</v>
       </c>
       <c r="L2" s="4">
-        <v>287980</v>
+        <v>381347</v>
       </c>
       <c r="M2" s="4">
-        <v>958920</v>
+        <v>1211018</v>
       </c>
       <c r="N2" s="4">
-        <v>14197</v>
+        <v>15836</v>
       </c>
       <c r="O2" s="4">
-        <v>604266</v>
+        <v>775632</v>
       </c>
       <c r="P2" s="4">
-        <v>556266</v>
+        <v>703762</v>
       </c>
       <c r="Q2" s="4">
-        <v>38230</v>
+        <v>66515</v>
       </c>
       <c r="R2" s="4">
-        <v>127715</v>
+        <v>150856</v>
       </c>
       <c r="S2" s="4">
-        <v>74539</v>
+        <v>88301</v>
       </c>
       <c r="T2" s="4">
-        <v>88518</v>
+        <v>108791</v>
       </c>
       <c r="U2" s="4">
-        <v>165810</v>
+        <v>186244</v>
       </c>
       <c r="V2" s="4">
-        <v>17271</v>
+        <v>21977</v>
       </c>
       <c r="W2" s="4">
-        <v>53196</v>
+        <v>59146</v>
       </c>
       <c r="X2" s="4">
-        <v>118407</v>
+        <v>171876</v>
       </c>
       <c r="Y2" s="4">
-        <v>11556</v>
+        <v>14224</v>
       </c>
       <c r="Z2" s="4">
-        <v>10498</v>
+        <v>11613</v>
       </c>
       <c r="AA2" s="4">
-        <v>5817</v>
+        <v>9615</v>
       </c>
       <c r="AB2" s="4">
         <v>145335</v>
       </c>
       <c r="AC2" s="4">
-        <v>595612</v>
+        <v>777890</v>
       </c>
       <c r="AD2" s="4">
-        <v>89408</v>
+        <v>112264</v>
       </c>
       <c r="AE2" s="4">
-        <v>80124</v>
+        <v>108432</v>
       </c>
       <c r="AF2" s="4">
-        <v>20104</v>
+        <v>24869</v>
       </c>
       <c r="AG2" s="4">
-        <v>142617</v>
+        <v>167361</v>
       </c>
       <c r="AH2" s="4">
-        <v>136127</v>
+        <v>163538</v>
       </c>
       <c r="AI2" s="4">
-        <v>188780</v>
+        <v>292219</v>
       </c>
       <c r="AJ2" s="4">
-        <v>26775</v>
+        <v>30354</v>
       </c>
       <c r="AK2" s="4">
-        <v>60420</v>
+        <v>76898</v>
       </c>
       <c r="AL2" s="4">
-        <v>123204</v>
+        <v>155892</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4">
         <v>49</v>
@@ -7949,7 +7941,7 @@
     </row>
     <row r="4" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6">
         <v>198399</v>
@@ -8065,7 +8057,7 @@
     </row>
     <row r="5" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6">
         <v>46627</v>
@@ -8181,276 +8173,276 @@
     </row>
     <row r="6" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="16">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15">
         <f xml:space="preserve"> 1 / (0.5 +B9)</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="C6" s="15">
         <f t="shared" ref="C6:AL6" si="0" xml:space="preserve"> 1 / (0.5 +C9)</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
         <v>6.1162079510703364E-3</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <f t="shared" si="0"/>
         <v>1.7196904557179708E-3</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>1.3956734124214933E-3</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <f t="shared" si="0"/>
         <v>9.7560975609756097E-3</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <f t="shared" si="0"/>
         <v>5.3092646668436425E-4</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <f t="shared" si="0"/>
         <v>2.0100502512562816E-3</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <f t="shared" si="0"/>
         <v>3.2786885245901641E-2</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <f t="shared" si="0"/>
         <v>3.5087719298245612E-2</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <f t="shared" si="0"/>
         <v>3.629764065335753E-3</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="U6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="U6" s="15">
         <f t="shared" si="0"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="W6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="W6" s="15">
         <f t="shared" si="0"/>
         <v>1.6260162601626018E-2</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="15">
         <f t="shared" si="0"/>
         <v>1.4184397163120567E-2</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Z6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="Z6" s="15">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AB6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="AB6" s="15">
         <f t="shared" si="0"/>
         <v>3.552397868561279E-3</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AC6" s="15">
         <f t="shared" si="0"/>
         <v>7.7220077220077222E-3</v>
       </c>
-      <c r="AD6" s="16">
+      <c r="AD6" s="15">
         <f t="shared" si="0"/>
         <v>4.1580041580041582E-3</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AE6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AF6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="AF6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AG6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="AG6" s="15">
         <f t="shared" si="0"/>
         <v>1.8264840182648401E-3</v>
       </c>
-      <c r="AH6" s="16">
+      <c r="AH6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AI6" s="16">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="AI6" s="15">
         <f t="shared" si="0"/>
         <v>8.2987551867219917E-3</v>
       </c>
-      <c r="AJ6" s="16">
+      <c r="AJ6" s="15">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AK6" s="16">
+      <c r="AK6" s="15">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="AL6" s="16">
+      <c r="AL6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.9999996000000801</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>44</v>
+      <c r="A8" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="A9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C9" s="6">
         <v>8</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E9" s="6">
         <v>20</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>19</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>10</v>
       </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="H9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I9" s="6">
         <v>163</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="6">
         <v>581</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="6">
         <v>716</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="6">
         <v>102</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="6">
         <v>1883</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="6">
         <v>6</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="6">
         <v>497</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="6">
         <v>30</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="6">
         <v>28</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="6">
         <v>275</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="6">
         <v>1</v>
       </c>
-      <c r="T9" s="10">
-        <v>0</v>
-      </c>
-      <c r="U9" s="10">
+      <c r="T9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="U9" s="6">
         <v>24</v>
       </c>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
-      <c r="W9" s="10">
+      <c r="V9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="W9" s="6">
         <v>61</v>
       </c>
-      <c r="X9" s="10">
+      <c r="X9" s="6">
         <v>70</v>
       </c>
-      <c r="Y9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10">
+      <c r="Y9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Z9" s="6">
         <v>1</v>
       </c>
-      <c r="AA9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="10">
+      <c r="AA9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AB9" s="6">
         <v>281</v>
       </c>
-      <c r="AC9" s="10">
+      <c r="AC9" s="6">
         <v>129</v>
       </c>
-      <c r="AD9" s="10">
+      <c r="AD9" s="6">
         <v>240</v>
       </c>
-      <c r="AE9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="10">
+      <c r="AE9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AG9" s="6">
         <v>547</v>
       </c>
-      <c r="AH9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="10">
+      <c r="AH9" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AI9" s="6">
         <v>120</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AJ9" s="6">
         <v>1</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="6">
         <v>2</v>
       </c>
-      <c r="AL9" s="10">
-        <v>0</v>
+      <c r="AL9" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
   </sheetData>
@@ -8463,7 +8455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:AL4"/>
     </sheetView>
   </sheetViews>
@@ -8579,423 +8571,423 @@
         <v>14</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="9" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>18410</v>
-      </c>
-      <c r="C2" s="9">
-        <v>92051</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4480</v>
-      </c>
-      <c r="E2" s="9">
-        <v>150346</v>
-      </c>
-      <c r="F2" s="9">
-        <v>94434</v>
-      </c>
-      <c r="G2" s="9">
-        <v>98393</v>
-      </c>
-      <c r="H2" s="9">
-        <v>69781</v>
-      </c>
-      <c r="I2" s="9">
-        <v>76524</v>
-      </c>
-      <c r="J2" s="9">
-        <v>34084</v>
-      </c>
-      <c r="K2" s="9">
-        <v>829697</v>
-      </c>
-      <c r="L2" s="9">
-        <v>287980</v>
-      </c>
-      <c r="M2" s="9">
-        <v>958920</v>
-      </c>
-      <c r="N2" s="9">
-        <v>14197</v>
-      </c>
-      <c r="O2" s="9">
-        <v>604266</v>
-      </c>
-      <c r="P2" s="9">
-        <v>556266</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>38230</v>
-      </c>
-      <c r="R2" s="9">
-        <v>127715</v>
-      </c>
-      <c r="S2" s="9">
-        <v>74539</v>
-      </c>
-      <c r="T2" s="9">
-        <v>88518</v>
-      </c>
-      <c r="U2" s="9">
-        <v>165810</v>
-      </c>
-      <c r="V2" s="9">
-        <v>17271</v>
-      </c>
-      <c r="W2" s="9">
-        <v>53196</v>
-      </c>
-      <c r="X2" s="9">
-        <v>118407</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>11556</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>10498</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>5817</v>
-      </c>
-      <c r="AB2" s="9">
+      <c r="B2" s="4">
+        <v>20742</v>
+      </c>
+      <c r="C2" s="4">
+        <v>110819</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8213</v>
+      </c>
+      <c r="E2" s="4">
+        <v>183663</v>
+      </c>
+      <c r="F2" s="4">
+        <v>190914</v>
+      </c>
+      <c r="G2" s="4">
+        <v>152517</v>
+      </c>
+      <c r="H2" s="4">
+        <v>78480</v>
+      </c>
+      <c r="I2" s="4">
+        <v>84714</v>
+      </c>
+      <c r="J2" s="4">
+        <v>38773</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1044843</v>
+      </c>
+      <c r="L2" s="4">
+        <v>381347</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1211018</v>
+      </c>
+      <c r="N2" s="4">
+        <v>15836</v>
+      </c>
+      <c r="O2" s="4">
+        <v>775632</v>
+      </c>
+      <c r="P2" s="4">
+        <v>703762</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>66515</v>
+      </c>
+      <c r="R2" s="4">
+        <v>150856</v>
+      </c>
+      <c r="S2" s="4">
+        <v>88301</v>
+      </c>
+      <c r="T2" s="4">
+        <v>108791</v>
+      </c>
+      <c r="U2" s="4">
+        <v>186244</v>
+      </c>
+      <c r="V2" s="4">
+        <v>21977</v>
+      </c>
+      <c r="W2" s="4">
+        <v>59146</v>
+      </c>
+      <c r="X2" s="4">
+        <v>171876</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>14224</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>11613</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>9615</v>
+      </c>
+      <c r="AB2" s="4">
         <v>145335</v>
       </c>
-      <c r="AC2" s="9">
-        <v>595612</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>89408</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>80124</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>20104</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>142617</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>136127</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>188780</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>26775</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>60420</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>123204</v>
+      <c r="AC2" s="4">
+        <v>777890</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>112264</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>108432</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>24869</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>167361</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>163538</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>292219</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>30354</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>76898</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>155892</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
+        <v>198399</v>
+      </c>
+      <c r="C3" s="6">
+        <v>682563</v>
+      </c>
+      <c r="D3" s="6">
+        <v>50239</v>
+      </c>
+      <c r="E3" s="6">
+        <v>903549</v>
+      </c>
+      <c r="F3" s="6">
+        <v>621113</v>
+      </c>
+      <c r="G3" s="6">
+        <v>563112</v>
+      </c>
+      <c r="H3" s="6">
+        <v>683320</v>
+      </c>
+      <c r="I3" s="6">
+        <v>520874</v>
+      </c>
+      <c r="J3" s="6">
+        <v>304328</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2772617</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1235140</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2845477</v>
+      </c>
+      <c r="N3" s="6">
+        <v>190501</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1681498</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1550608</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>229263</v>
+      </c>
+      <c r="R3" s="6">
+        <v>677777</v>
+      </c>
+      <c r="S3" s="6">
+        <v>717157</v>
+      </c>
+      <c r="T3" s="6">
+        <v>536948</v>
+      </c>
+      <c r="U3" s="6">
+        <v>682995</v>
+      </c>
+      <c r="V3" s="6">
+        <v>240571</v>
+      </c>
+      <c r="W3" s="6">
+        <v>435890</v>
+      </c>
+      <c r="X3" s="6">
+        <v>567805</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>101906</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>146380</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>56298</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>1671185</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>2214690</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>479220</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>632309</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>224039</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>690554</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>598230</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>1164916</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>273748</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>551569</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>320276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="10">
-        <v>198399</v>
-      </c>
-      <c r="C3" s="10">
-        <v>682563</v>
-      </c>
-      <c r="D3" s="10">
-        <v>50239</v>
-      </c>
-      <c r="E3" s="10">
-        <v>903549</v>
-      </c>
-      <c r="F3" s="10">
-        <v>621113</v>
-      </c>
-      <c r="G3" s="10">
-        <v>563112</v>
-      </c>
-      <c r="H3" s="10">
-        <v>683320</v>
-      </c>
-      <c r="I3" s="10">
-        <v>520874</v>
-      </c>
-      <c r="J3" s="10">
-        <v>304328</v>
-      </c>
-      <c r="K3" s="10">
-        <v>2772617</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1235140</v>
-      </c>
-      <c r="M3" s="10">
-        <v>2845477</v>
-      </c>
-      <c r="N3" s="10">
-        <v>190501</v>
-      </c>
-      <c r="O3" s="10">
-        <v>1681498</v>
-      </c>
-      <c r="P3" s="10">
-        <v>1550608</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>229263</v>
-      </c>
-      <c r="R3" s="10">
-        <v>677777</v>
-      </c>
-      <c r="S3" s="10">
-        <v>717157</v>
-      </c>
-      <c r="T3" s="10">
-        <v>536948</v>
-      </c>
-      <c r="U3" s="10">
-        <v>682995</v>
-      </c>
-      <c r="V3" s="10">
-        <v>240571</v>
-      </c>
-      <c r="W3" s="10">
-        <v>435890</v>
-      </c>
-      <c r="X3" s="10">
-        <v>567805</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>101906</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>146380</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>56298</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>1671185</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>2214690</v>
-      </c>
-      <c r="AD3" s="10">
-        <v>479220</v>
-      </c>
-      <c r="AE3" s="10">
-        <v>632309</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>224039</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>690554</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>598230</v>
-      </c>
-      <c r="AI3" s="10">
-        <v>1164916</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>273748</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>551569</v>
-      </c>
-      <c r="AL3" s="10">
-        <v>320276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>46627</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>263155</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>18939</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>366680</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>562617</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>205396</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>239577</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>228444</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="6">
         <v>162044</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="6">
         <v>1881337</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="6">
         <v>1508424</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="6">
         <v>2639898</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="6">
         <v>74861</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="6">
         <v>1609082</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="6">
         <v>1329980</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="6">
         <v>170939</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="6">
         <v>583639</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="6">
         <v>237116</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="6">
         <v>336801</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="6">
         <v>549703</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="6">
         <v>92886</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="6">
         <v>99652</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="6">
         <v>285969</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="6">
         <v>77899</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="6">
         <v>27956</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="6">
         <v>18273</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="6">
         <v>587342</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="6">
         <v>1781191</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="6">
         <v>399808</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="6">
         <v>298402</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="6">
         <v>66194</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="6">
         <v>493168</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="6">
         <v>365642</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AI4" s="6">
         <v>450868</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="6">
         <v>57152</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="6">
         <v>229245</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="6">
         <v>291335</v>
       </c>
     </row>
@@ -9008,8 +9000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AL4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9058,306 +9050,306 @@
         <v>14</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="AM1" s="11"/>
     </row>
-    <row r="2" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>18410</v>
-      </c>
-      <c r="C2" s="9">
-        <v>92051</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4480</v>
-      </c>
-      <c r="E2" s="9">
-        <v>150346</v>
-      </c>
-      <c r="F2" s="9">
-        <v>94434</v>
-      </c>
-      <c r="G2" s="9">
-        <v>98393</v>
-      </c>
-      <c r="H2" s="9">
-        <v>69781</v>
-      </c>
-      <c r="I2" s="9">
-        <v>76524</v>
-      </c>
-      <c r="J2" s="9">
-        <v>34084</v>
-      </c>
-      <c r="K2" s="9">
-        <v>829697</v>
-      </c>
-      <c r="L2" s="9">
-        <v>287980</v>
-      </c>
-      <c r="M2" s="9">
-        <v>958920</v>
-      </c>
-      <c r="N2" s="9">
-        <v>14197</v>
-      </c>
-      <c r="O2" s="9">
-        <v>604266</v>
-      </c>
-      <c r="P2" s="9">
-        <v>556266</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>38230</v>
-      </c>
-      <c r="R2" s="9">
-        <v>127715</v>
-      </c>
-      <c r="S2" s="9">
-        <v>74539</v>
-      </c>
-      <c r="T2" s="9">
-        <v>88518</v>
-      </c>
-      <c r="U2" s="9">
-        <v>165810</v>
-      </c>
-      <c r="V2" s="9">
-        <v>17271</v>
-      </c>
-      <c r="W2" s="9">
-        <v>53196</v>
-      </c>
-      <c r="X2" s="9">
-        <v>118407</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>11556</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>10498</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>5817</v>
-      </c>
-      <c r="AB2" s="9">
+      <c r="B2" s="4">
+        <v>20742</v>
+      </c>
+      <c r="C2" s="4">
+        <v>110819</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8213</v>
+      </c>
+      <c r="E2" s="4">
+        <v>183663</v>
+      </c>
+      <c r="F2" s="4">
+        <v>190914</v>
+      </c>
+      <c r="G2" s="4">
+        <v>152517</v>
+      </c>
+      <c r="H2" s="4">
+        <v>78480</v>
+      </c>
+      <c r="I2" s="4">
+        <v>84714</v>
+      </c>
+      <c r="J2" s="4">
+        <v>38773</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1044843</v>
+      </c>
+      <c r="L2" s="4">
+        <v>381347</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1211018</v>
+      </c>
+      <c r="N2" s="4">
+        <v>15836</v>
+      </c>
+      <c r="O2" s="4">
+        <v>775632</v>
+      </c>
+      <c r="P2" s="4">
+        <v>703762</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>66515</v>
+      </c>
+      <c r="R2" s="4">
+        <v>150856</v>
+      </c>
+      <c r="S2" s="4">
+        <v>88301</v>
+      </c>
+      <c r="T2" s="4">
+        <v>108791</v>
+      </c>
+      <c r="U2" s="4">
+        <v>186244</v>
+      </c>
+      <c r="V2" s="4">
+        <v>21977</v>
+      </c>
+      <c r="W2" s="4">
+        <v>59146</v>
+      </c>
+      <c r="X2" s="4">
+        <v>171876</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>14224</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>11613</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>9615</v>
+      </c>
+      <c r="AB2" s="4">
         <v>145335</v>
       </c>
-      <c r="AC2" s="9">
-        <v>595612</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>89408</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>80124</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>20104</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>142617</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>136127</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>188780</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>26775</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>60420</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>123204</v>
+      <c r="AC2" s="4">
+        <v>777890</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>112264</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>108432</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>24869</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>167361</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>163538</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>292219</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>30354</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>76898</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>155892</v>
       </c>
       <c r="AM2" s="11"/>
     </row>
-    <row r="3" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="9">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4">
         <v>49</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>192</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>82</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>291</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>407</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>232</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>248</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="4">
         <v>234</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="4">
         <v>86</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="4">
         <v>1777</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="4">
         <v>1120</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="4">
         <v>2782</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="4">
         <v>52</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="4">
         <v>1779</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="4">
         <v>1414</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="4">
         <v>183</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="4">
         <v>496</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="4">
         <v>173</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="4">
         <v>204</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="4">
         <v>470</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="4">
         <v>93</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="4">
         <v>82</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="4">
         <v>178</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="4">
         <v>54</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="4">
         <v>65</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="4">
         <v>73</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="4">
         <v>268</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="4">
         <v>1415</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="4">
         <v>220</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AE3" s="4">
         <v>208</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="4">
         <v>87</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AG3" s="4">
         <v>479</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="4">
         <v>448</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AI3" s="4">
         <v>362</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AJ3" s="4">
         <v>91</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AK3" s="4">
         <v>277</v>
       </c>
       <c r="AL3" s="9">
@@ -9367,7 +9359,7 @@
     </row>
     <row r="4" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10">
         <v>3.22</v>
@@ -9482,235 +9474,235 @@
       </c>
       <c r="AM4" s="12"/>
     </row>
-    <row r="5" spans="1:39" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6">
+        <v>198399</v>
+      </c>
+      <c r="C5" s="6">
+        <v>682563</v>
+      </c>
+      <c r="D5" s="6">
+        <v>50239</v>
+      </c>
+      <c r="E5" s="6">
+        <v>903549</v>
+      </c>
+      <c r="F5" s="6">
+        <v>621113</v>
+      </c>
+      <c r="G5" s="6">
+        <v>563112</v>
+      </c>
+      <c r="H5" s="6">
+        <v>683320</v>
+      </c>
+      <c r="I5" s="6">
+        <v>520874</v>
+      </c>
+      <c r="J5" s="6">
+        <v>304328</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2772617</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1235140</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2845477</v>
+      </c>
+      <c r="N5" s="6">
+        <v>190501</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1681498</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1550608</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>229263</v>
+      </c>
+      <c r="R5" s="6">
+        <v>677777</v>
+      </c>
+      <c r="S5" s="6">
+        <v>717157</v>
+      </c>
+      <c r="T5" s="6">
+        <v>536948</v>
+      </c>
+      <c r="U5" s="6">
+        <v>682995</v>
+      </c>
+      <c r="V5" s="6">
+        <v>240571</v>
+      </c>
+      <c r="W5" s="6">
+        <v>435890</v>
+      </c>
+      <c r="X5" s="6">
+        <v>567805</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>101906</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>146380</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>56298</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1671185</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>2214690</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>479220</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>632309</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>224039</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>690554</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>598230</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1164916</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>273748</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>551569</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>320276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10">
-        <v>198399</v>
-      </c>
-      <c r="C5" s="10">
-        <v>682563</v>
-      </c>
-      <c r="D5" s="10">
-        <v>50239</v>
-      </c>
-      <c r="E5" s="10">
-        <v>903549</v>
-      </c>
-      <c r="F5" s="10">
-        <v>621113</v>
-      </c>
-      <c r="G5" s="10">
-        <v>563112</v>
-      </c>
-      <c r="H5" s="10">
-        <v>683320</v>
-      </c>
-      <c r="I5" s="10">
-        <v>520874</v>
-      </c>
-      <c r="J5" s="10">
-        <v>304328</v>
-      </c>
-      <c r="K5" s="10">
-        <v>2772617</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1235140</v>
-      </c>
-      <c r="M5" s="10">
-        <v>2845477</v>
-      </c>
-      <c r="N5" s="10">
-        <v>190501</v>
-      </c>
-      <c r="O5" s="10">
-        <v>1681498</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1550608</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>229263</v>
-      </c>
-      <c r="R5" s="10">
-        <v>677777</v>
-      </c>
-      <c r="S5" s="10">
-        <v>717157</v>
-      </c>
-      <c r="T5" s="10">
-        <v>536948</v>
-      </c>
-      <c r="U5" s="10">
-        <v>682995</v>
-      </c>
-      <c r="V5" s="10">
-        <v>240571</v>
-      </c>
-      <c r="W5" s="10">
-        <v>435890</v>
-      </c>
-      <c r="X5" s="10">
-        <v>567805</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>101906</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>146380</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>56298</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>1671185</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>2214690</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>479220</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>632309</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>224039</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>690554</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>598230</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>1164916</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>273748</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>551569</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>320276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>46627</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>263155</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>18939</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>366680</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>562617</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>205396</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>239577</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>228444</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="6">
         <v>162044</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="6">
         <v>1881337</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="6">
         <v>1508424</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="6">
         <v>2639898</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="6">
         <v>74861</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="6">
         <v>1609082</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="6">
         <v>1329980</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="6">
         <v>170939</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="6">
         <v>583639</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="6">
         <v>237116</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="6">
         <v>336801</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="6">
         <v>549703</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="6">
         <v>92886</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="6">
         <v>99652</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="6">
         <v>285969</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="6">
         <v>77899</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="6">
         <v>27956</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="6">
         <v>18273</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="6">
         <v>587342</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="6">
         <v>1781191</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="6">
         <v>399808</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AE6" s="6">
         <v>298402</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF6" s="6">
         <v>66194</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="6">
         <v>493168</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH6" s="6">
         <v>365642</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AI6" s="6">
         <v>450868</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6" s="6">
         <v>57152</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK6" s="6">
         <v>229245</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL6" s="6">
         <v>291335</v>
       </c>
     </row>
@@ -9723,7 +9715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:AL11"/>
     </sheetView>
   </sheetViews>
@@ -9776,304 +9768,304 @@
         <v>14</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="9" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>18410</v>
-      </c>
-      <c r="C2" s="9">
-        <v>92051</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4480</v>
-      </c>
-      <c r="E2" s="9">
-        <v>150346</v>
-      </c>
-      <c r="F2" s="9">
-        <v>94434</v>
-      </c>
-      <c r="G2" s="9">
-        <v>98393</v>
-      </c>
-      <c r="H2" s="9">
-        <v>69781</v>
-      </c>
-      <c r="I2" s="9">
-        <v>76524</v>
-      </c>
-      <c r="J2" s="9">
-        <v>34084</v>
-      </c>
-      <c r="K2" s="9">
-        <v>829697</v>
-      </c>
-      <c r="L2" s="9">
-        <v>287980</v>
-      </c>
-      <c r="M2" s="9">
-        <v>958920</v>
-      </c>
-      <c r="N2" s="9">
-        <v>14197</v>
-      </c>
-      <c r="O2" s="9">
-        <v>604266</v>
-      </c>
-      <c r="P2" s="9">
-        <v>556266</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>38230</v>
-      </c>
-      <c r="R2" s="9">
-        <v>127715</v>
-      </c>
-      <c r="S2" s="9">
-        <v>74539</v>
-      </c>
-      <c r="T2" s="9">
-        <v>88518</v>
-      </c>
-      <c r="U2" s="9">
-        <v>165810</v>
-      </c>
-      <c r="V2" s="9">
-        <v>17271</v>
-      </c>
-      <c r="W2" s="9">
-        <v>53196</v>
-      </c>
-      <c r="X2" s="9">
-        <v>118407</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>11556</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>10498</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>5817</v>
-      </c>
-      <c r="AB2" s="9">
+      <c r="B2" s="4">
+        <v>20742</v>
+      </c>
+      <c r="C2" s="4">
+        <v>110819</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8213</v>
+      </c>
+      <c r="E2" s="4">
+        <v>183663</v>
+      </c>
+      <c r="F2" s="4">
+        <v>190914</v>
+      </c>
+      <c r="G2" s="4">
+        <v>152517</v>
+      </c>
+      <c r="H2" s="4">
+        <v>78480</v>
+      </c>
+      <c r="I2" s="4">
+        <v>84714</v>
+      </c>
+      <c r="J2" s="4">
+        <v>38773</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1044843</v>
+      </c>
+      <c r="L2" s="4">
+        <v>381347</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1211018</v>
+      </c>
+      <c r="N2" s="4">
+        <v>15836</v>
+      </c>
+      <c r="O2" s="4">
+        <v>775632</v>
+      </c>
+      <c r="P2" s="4">
+        <v>703762</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>66515</v>
+      </c>
+      <c r="R2" s="4">
+        <v>150856</v>
+      </c>
+      <c r="S2" s="4">
+        <v>88301</v>
+      </c>
+      <c r="T2" s="4">
+        <v>108791</v>
+      </c>
+      <c r="U2" s="4">
+        <v>186244</v>
+      </c>
+      <c r="V2" s="4">
+        <v>21977</v>
+      </c>
+      <c r="W2" s="4">
+        <v>59146</v>
+      </c>
+      <c r="X2" s="4">
+        <v>171876</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>14224</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>11613</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>9615</v>
+      </c>
+      <c r="AB2" s="4">
         <v>145335</v>
       </c>
-      <c r="AC2" s="9">
-        <v>595612</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>89408</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>80124</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>20104</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>142617</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>136127</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>188780</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>26775</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>60420</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>123204</v>
+      <c r="AC2" s="4">
+        <v>777890</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>112264</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>108432</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>24869</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>167361</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>163538</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>292219</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>30354</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>76898</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>155892</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="9">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4">
         <v>49</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>192</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>82</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>291</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>407</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>232</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>248</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="4">
         <v>234</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="4">
         <v>86</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="4">
         <v>1777</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="4">
         <v>1120</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="4">
         <v>2782</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="4">
         <v>52</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="4">
         <v>1779</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="4">
         <v>1414</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="4">
         <v>183</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="4">
         <v>496</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="4">
         <v>173</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="4">
         <v>204</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="4">
         <v>470</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="4">
         <v>93</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="4">
         <v>82</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="4">
         <v>178</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="4">
         <v>54</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="4">
         <v>65</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="4">
         <v>73</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="4">
         <v>268</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="4">
         <v>1415</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="4">
         <v>220</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AE3" s="4">
         <v>208</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="4">
         <v>87</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AG3" s="4">
         <v>479</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="4">
         <v>448</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AI3" s="4">
         <v>362</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AJ3" s="4">
         <v>91</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AK3" s="4">
         <v>277</v>
       </c>
       <c r="AL3" s="9">
@@ -10082,7 +10074,7 @@
     </row>
     <row r="4" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10">
         <f>B9*B11</f>
@@ -10233,357 +10225,357 @@
         <v>-4080</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6">
+        <v>198399</v>
+      </c>
+      <c r="C5" s="6">
+        <v>682563</v>
+      </c>
+      <c r="D5" s="6">
+        <v>50239</v>
+      </c>
+      <c r="E5" s="6">
+        <v>903549</v>
+      </c>
+      <c r="F5" s="6">
+        <v>621113</v>
+      </c>
+      <c r="G5" s="6">
+        <v>563112</v>
+      </c>
+      <c r="H5" s="6">
+        <v>683320</v>
+      </c>
+      <c r="I5" s="6">
+        <v>520874</v>
+      </c>
+      <c r="J5" s="6">
+        <v>304328</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2772617</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1235140</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2845477</v>
+      </c>
+      <c r="N5" s="6">
+        <v>190501</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1681498</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1550608</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>229263</v>
+      </c>
+      <c r="R5" s="6">
+        <v>677777</v>
+      </c>
+      <c r="S5" s="6">
+        <v>717157</v>
+      </c>
+      <c r="T5" s="6">
+        <v>536948</v>
+      </c>
+      <c r="U5" s="6">
+        <v>682995</v>
+      </c>
+      <c r="V5" s="6">
+        <v>240571</v>
+      </c>
+      <c r="W5" s="6">
+        <v>435890</v>
+      </c>
+      <c r="X5" s="6">
+        <v>567805</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>101906</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>146380</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>56298</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>1671185</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>2214690</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>479220</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>632309</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>224039</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>690554</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>598230</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>1164916</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>273748</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>551569</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>320276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10">
-        <v>198399</v>
-      </c>
-      <c r="C5" s="10">
-        <v>682563</v>
-      </c>
-      <c r="D5" s="10">
-        <v>50239</v>
-      </c>
-      <c r="E5" s="10">
-        <v>903549</v>
-      </c>
-      <c r="F5" s="10">
-        <v>621113</v>
-      </c>
-      <c r="G5" s="10">
-        <v>563112</v>
-      </c>
-      <c r="H5" s="10">
-        <v>683320</v>
-      </c>
-      <c r="I5" s="10">
-        <v>520874</v>
-      </c>
-      <c r="J5" s="10">
-        <v>304328</v>
-      </c>
-      <c r="K5" s="10">
-        <v>2772617</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1235140</v>
-      </c>
-      <c r="M5" s="10">
-        <v>2845477</v>
-      </c>
-      <c r="N5" s="10">
-        <v>190501</v>
-      </c>
-      <c r="O5" s="10">
-        <v>1681498</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1550608</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>229263</v>
-      </c>
-      <c r="R5" s="10">
-        <v>677777</v>
-      </c>
-      <c r="S5" s="10">
-        <v>717157</v>
-      </c>
-      <c r="T5" s="10">
-        <v>536948</v>
-      </c>
-      <c r="U5" s="10">
-        <v>682995</v>
-      </c>
-      <c r="V5" s="10">
-        <v>240571</v>
-      </c>
-      <c r="W5" s="10">
-        <v>435890</v>
-      </c>
-      <c r="X5" s="10">
-        <v>567805</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>101906</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>146380</v>
-      </c>
-      <c r="AA5" s="10">
-        <v>56298</v>
-      </c>
-      <c r="AB5" s="10">
-        <v>1671185</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>2214690</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>479220</v>
-      </c>
-      <c r="AE5" s="10">
-        <v>632309</v>
-      </c>
-      <c r="AF5" s="10">
-        <v>224039</v>
-      </c>
-      <c r="AG5" s="10">
-        <v>690554</v>
-      </c>
-      <c r="AH5" s="10">
-        <v>598230</v>
-      </c>
-      <c r="AI5" s="10">
-        <v>1164916</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>273748</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>551569</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>320276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>46627</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>263155</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>18939</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>366680</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>562617</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>205396</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>239577</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>228444</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="6">
         <v>162044</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="6">
         <v>1881337</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="6">
         <v>1508424</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="6">
         <v>2639898</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="6">
         <v>74861</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="6">
         <v>1609082</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="6">
         <v>1329980</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="6">
         <v>170939</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="6">
         <v>583639</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="6">
         <v>237116</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="6">
         <v>336801</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="6">
         <v>549703</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="6">
         <v>92886</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="6">
         <v>99652</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="6">
         <v>285969</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Y6" s="6">
         <v>77899</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="6">
         <v>27956</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="6">
         <v>18273</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="6">
         <v>587342</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="6">
         <v>1781191</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="6">
         <v>399808</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AE6" s="6">
         <v>298402</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF6" s="6">
         <v>66194</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="6">
         <v>493168</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH6" s="6">
         <v>365642</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AI6" s="6">
         <v>450868</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6" s="6">
         <v>57152</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK6" s="6">
         <v>229245</v>
       </c>
-      <c r="AL6" s="10">
+      <c r="AL6" s="6">
         <v>291335</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="A9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="14">
         <v>-4000</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>-4000</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>-4000</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>-4000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>-4000</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>-4000</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>-4000</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>-4000</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>-4000</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>-4000</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>-4000</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <v>-4000</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>-4000</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <v>-4000</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>-4000</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="14">
         <v>-4000</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="14">
         <v>-4000</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="14">
         <v>-4000</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="14">
         <v>-4000</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="14">
         <v>-4000</v>
       </c>
-      <c r="V9" s="15">
+      <c r="V9" s="14">
         <v>-4000</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="14">
         <v>-4000</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="14">
         <v>-4000</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="14">
         <v>-4000</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AA9" s="15">
+      <c r="AA9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AC9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AD9" s="15">
+      <c r="AD9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AE9" s="15">
+      <c r="AE9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AF9" s="15">
+      <c r="AF9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AG9" s="15">
+      <c r="AG9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AH9" s="15">
+      <c r="AH9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AI9" s="15">
+      <c r="AI9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AJ9" s="15">
+      <c r="AJ9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AK9" s="15">
+      <c r="AK9" s="14">
         <v>-4000</v>
       </c>
-      <c r="AL9" s="15">
+      <c r="AL9" s="14">
         <v>-4000</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10">
         <v>3.22</v>
